--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DDEA3E-AB54-4986-B419-DE51F53CCF06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D714CEC-EE2B-4B11-B6E6-2F5E1482B1B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="456" windowWidth="16488" windowHeight="11388" xr2:uid="{33A51855-9CC8-48BF-AF72-98555351A2CA}"/>
+    <workbookView xWindow="276" yWindow="264" windowWidth="16224" windowHeight="11388" xr2:uid="{33A51855-9CC8-48BF-AF72-98555351A2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Energy Consumed Quota LEACH/MPC</t>
   </si>
   <si>
-    <t>Data Received [Packets]</t>
-  </si>
-  <si>
     <t>Energy Consumed [J]</t>
   </si>
   <si>
@@ -769,6 +766,9 @@
   </si>
   <si>
     <t>5525/7659</t>
+  </si>
+  <si>
+    <t>Data Received [Bits]</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422AF47D-5A1F-4A85-9298-77BA4672306C}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,36 +1209,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1260,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="6">
         <v>27051000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="7">
         <v>169</v>
@@ -1282,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -1296,16 +1296,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
         <v>29686000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7">
         <v>184</v>
@@ -1318,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -1332,16 +1332,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="6">
         <v>31423000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7">
         <v>197</v>
@@ -1354,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1368,16 +1368,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="6">
         <v>31786000</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7">
         <v>198</v>
@@ -1390,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>24960000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6">
         <v>151</v>
@@ -1422,16 +1422,16 @@
         <v>7654</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="6">
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1442,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="6">
         <v>29461000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6">
         <v>182</v>
@@ -1460,16 +1460,16 @@
         <v>8258</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="6">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1480,16 +1480,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="6">
         <v>30746000</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="6">
         <v>189</v>
@@ -1498,16 +1498,16 @@
         <v>8434</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="6">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6">
         <v>24478000</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6">
         <v>148</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1563,16 +1563,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="7">
         <v>28671000</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="6">
         <v>176</v>
@@ -1581,16 +1581,16 @@
         <v>7950</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1601,16 +1601,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E14">
         <v>28665000</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6">
         <v>178</v>
@@ -1619,16 +1619,16 @@
         <v>8130</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1639,16 +1639,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="7">
         <v>27740000</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6">
         <v>171</v>
@@ -1657,16 +1657,16 @@
         <v>7983</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -1677,16 +1677,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="7">
         <v>23527000</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6">
         <v>143</v>
@@ -1695,16 +1695,16 @@
         <v>8061</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1715,16 +1715,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E17">
         <v>31576000</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7">
         <v>195</v>
@@ -1733,16 +1733,16 @@
         <v>8362</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1753,16 +1753,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E18">
         <v>30451000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7">
         <v>188</v>
@@ -1771,16 +1771,16 @@
         <v>8283</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1791,16 +1791,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E19">
         <v>26987000</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7">
         <v>167</v>
@@ -1809,16 +1809,16 @@
         <v>7623</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -1829,16 +1829,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="6">
         <v>25633000</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7">
         <v>157</v>
@@ -1847,16 +1847,16 @@
         <v>7492</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1879,16 +1879,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="6">
         <v>31756000</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7">
         <v>195</v>
@@ -1897,16 +1897,16 @@
         <v>8033</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -1917,16 +1917,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="6">
         <v>32075000</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7">
         <v>199</v>
@@ -1935,16 +1935,16 @@
         <v>7967</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -1955,16 +1955,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="6">
         <v>30898000</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7">
         <v>191</v>
@@ -1973,16 +1973,16 @@
         <v>8241</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -1993,16 +1993,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="6">
         <v>30015000</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="7">
         <v>186</v>
@@ -2011,16 +2011,16 @@
         <v>8208</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2031,16 +2031,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E26" s="6">
         <v>31801000</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7">
         <v>200</v>
@@ -2049,16 +2049,16 @@
         <v>8162</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2069,16 +2069,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E27" s="6">
         <v>30928000</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7">
         <v>194</v>
@@ -2087,16 +2087,16 @@
         <v>7933</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -2107,16 +2107,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E28" s="6">
         <v>30017000</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="7">
         <v>187</v>
@@ -2125,16 +2125,16 @@
         <v>7951</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -2145,16 +2145,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E29" s="6">
         <v>35757000</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7">
         <v>243</v>
@@ -2163,16 +2163,16 @@
         <v>7689</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2195,16 +2195,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E31" s="6">
         <v>23951000</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="7">
         <v>147</v>
@@ -2213,16 +2213,16 @@
         <v>7866</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -2233,16 +2233,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E32" s="6">
         <v>31188000</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="7">
         <v>195</v>
@@ -2251,16 +2251,16 @@
         <v>8190</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2271,16 +2271,16 @@
         <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E33" s="6">
         <v>24829000</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="7">
         <v>153</v>
@@ -2289,16 +2289,16 @@
         <v>7824</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -2309,16 +2309,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E34" s="6">
         <v>27582000</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="7">
         <v>169</v>
@@ -2327,16 +2327,16 @@
         <v>7703</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -2347,16 +2347,16 @@
         <v>29</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E35" s="6">
         <v>29453000</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="7">
         <v>182</v>
@@ -2365,16 +2365,16 @@
         <v>8041</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -2385,16 +2385,16 @@
         <v>30</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E36" s="6">
         <v>31514000</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="7">
         <v>197</v>
@@ -2403,16 +2403,16 @@
         <v>8259</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -2423,16 +2423,16 @@
         <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E37" s="6">
         <v>29911000</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="7">
         <v>188</v>
@@ -2441,16 +2441,16 @@
         <v>7980</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -2461,16 +2461,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E38" s="6">
         <v>25539000</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7">
         <v>155</v>
@@ -2479,16 +2479,16 @@
         <v>7965</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -2508,16 +2508,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E40" s="6">
         <v>21226000</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="7">
         <v>131</v>
@@ -2526,16 +2526,16 @@
         <v>7102</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -2546,16 +2546,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="6">
         <v>21069000</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7">
         <v>130</v>
@@ -2564,16 +2564,16 @@
         <v>6878</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M41" s="7">
         <v>10</v>
@@ -2584,16 +2584,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E42" s="6">
         <v>17198000</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G42" s="7">
         <v>105</v>
@@ -2602,16 +2602,16 @@
         <v>6758</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -2622,16 +2622,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E43" s="6">
         <v>24071000</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G43" s="7">
         <v>145</v>
@@ -2640,16 +2640,16 @@
         <v>7169</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M43" s="7">
         <v>10</v>
@@ -2660,16 +2660,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E44" s="6">
         <v>23748000</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="7">
         <v>144</v>
@@ -2678,16 +2678,16 @@
         <v>7084</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -2698,16 +2698,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="6">
         <v>20512000</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G45" s="7">
         <v>127</v>
@@ -2716,16 +2716,16 @@
         <v>6999</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
       <c r="K45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M45" s="7">
         <v>10</v>
@@ -2736,16 +2736,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E46" s="6">
         <v>18172000</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G46" s="7">
         <v>111</v>
@@ -2754,16 +2754,16 @@
         <v>7133</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M46" s="7">
         <v>10</v>
@@ -2774,16 +2774,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E47" s="6">
         <v>23717000</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G47" s="7">
         <v>142</v>
@@ -2792,16 +2792,16 @@
         <v>7130</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M47" s="7">
         <v>10</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2835,7 +2835,7 @@
         <v>16900000</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="7">
         <v>169</v>
@@ -2846,10 +2846,10 @@
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         <v>18400000</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" s="7">
         <v>184</v>
@@ -2873,10 +2873,10 @@
       </c>
       <c r="I51" s="6"/>
       <c r="K51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M51" s="7">
         <v>10</v>
@@ -2890,7 +2890,7 @@
         <v>19700000</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="7">
         <v>197</v>
@@ -2900,10 +2900,10 @@
       </c>
       <c r="I52" s="6"/>
       <c r="K52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M52" s="7">
         <v>10</v>
@@ -2917,7 +2917,7 @@
         <v>19800000</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="7">
         <v>198</v>
@@ -2926,10 +2926,10 @@
         <v>6781</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M53" s="7">
         <v>10</v>
@@ -2943,7 +2943,7 @@
         <v>15100000</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="7">
         <v>151</v>
@@ -2952,13 +2952,13 @@
         <v>6614</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M54" s="7">
         <v>10</v>
@@ -2972,7 +2972,7 @@
         <v>18200000</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="7">
         <v>182</v>
@@ -2981,13 +2981,13 @@
         <v>6870</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M55" s="7">
         <v>10</v>
@@ -3001,7 +3001,7 @@
         <v>18900000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="7">
         <v>189</v>
@@ -3010,13 +3010,13 @@
         <v>7021</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M56" s="7">
         <v>10</v>
@@ -3030,7 +3030,7 @@
         <v>14800000</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G57" s="7">
         <v>148</v>
@@ -3039,13 +3039,13 @@
         <v>6736</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M57" s="7">
         <v>10</v>
@@ -3062,7 +3062,7 @@
         <v>17600000</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G59">
         <v>176</v>
@@ -3071,13 +3071,13 @@
         <v>6730</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M59" s="7">
         <v>10</v>
@@ -3091,7 +3091,7 @@
         <v>17800000</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G60" s="7">
         <v>178</v>
@@ -3100,13 +3100,13 @@
         <v>6821</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M60" s="7">
         <v>10</v>
@@ -3120,7 +3120,7 @@
         <v>17100000</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G61" s="7">
         <v>171</v>
@@ -3129,13 +3129,13 @@
         <v>6940</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M61" s="7">
         <v>10</v>
@@ -3149,7 +3149,7 @@
         <v>14300000</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62" s="7">
         <v>143</v>
@@ -3158,13 +3158,13 @@
         <v>6876</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M62" s="7">
         <v>10</v>
@@ -3178,7 +3178,7 @@
         <v>19500000</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G63" s="7">
         <v>195</v>
@@ -3187,13 +3187,13 @@
         <v>7000</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M63" s="7">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>18800000</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G64" s="7">
         <v>188</v>
@@ -3216,13 +3216,13 @@
         <v>6958</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M64" s="7">
         <v>10</v>
@@ -3236,7 +3236,7 @@
         <v>16700000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G65" s="7">
         <v>167</v>
@@ -3245,13 +3245,13 @@
         <v>6668</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M65" s="7">
         <v>10</v>
@@ -3265,7 +3265,7 @@
         <v>15700000</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G66" s="7">
         <v>157</v>
@@ -3274,13 +3274,13 @@
         <v>6603</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M66" s="7">
         <v>10</v>
@@ -3300,7 +3300,7 @@
         <v>19500000</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="7">
         <v>195</v>
@@ -3309,13 +3309,13 @@
         <v>6766</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M68" s="7">
         <v>10</v>
@@ -3329,7 +3329,7 @@
         <v>19900000</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G69" s="7">
         <v>199</v>
@@ -3338,13 +3338,13 @@
         <v>6698</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M69" s="7">
         <v>10</v>
@@ -3358,7 +3358,7 @@
         <v>19100000</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70" s="7">
         <v>191</v>
@@ -3367,13 +3367,13 @@
         <v>6912</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M70" s="7">
         <v>10</v>
@@ -3387,7 +3387,7 @@
         <v>18600000</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G71" s="7">
         <v>186</v>
@@ -3396,13 +3396,13 @@
         <v>6877</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M71" s="7">
         <v>10</v>
@@ -3416,7 +3416,7 @@
         <v>20000000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G72" s="7">
         <v>200</v>
@@ -3425,13 +3425,13 @@
         <v>6749</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M72" s="7">
         <v>10</v>
@@ -3445,7 +3445,7 @@
         <v>19400000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73" s="7">
         <v>194</v>
@@ -3454,13 +3454,13 @@
         <v>6728</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M73" s="7">
         <v>10</v>
@@ -3474,7 +3474,7 @@
         <v>18700000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G74" s="7">
         <v>187</v>
@@ -3483,13 +3483,13 @@
         <v>6693</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M74" s="7">
         <v>10</v>
@@ -3503,7 +3503,7 @@
         <v>24298000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="7">
         <v>243</v>
@@ -3512,13 +3512,13 @@
         <v>6611</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M75" s="7">
         <v>10</v>
@@ -3539,7 +3539,7 @@
         <v>14700000</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G77" s="7">
         <v>147</v>
@@ -3548,13 +3548,13 @@
         <v>6732</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M77" s="7">
         <v>10</v>
@@ -3569,7 +3569,7 @@
         <v>19500000</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G78" s="7">
         <v>195</v>
@@ -3578,13 +3578,13 @@
         <v>6961</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M78" s="7">
         <v>10</v>
@@ -3599,7 +3599,7 @@
         <v>15300000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G79" s="7">
         <v>153</v>
@@ -3608,13 +3608,13 @@
         <v>6794</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M79" s="7">
         <v>10</v>
@@ -3629,7 +3629,7 @@
         <v>16900000</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G80" s="7">
         <v>169</v>
@@ -3638,13 +3638,13 @@
         <v>6706</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M80" s="7">
         <v>10</v>
@@ -3659,7 +3659,7 @@
         <v>18200000</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G81" s="7">
         <v>182</v>
@@ -3668,13 +3668,13 @@
         <v>6782</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M81" s="7">
         <v>10</v>
@@ -3689,7 +3689,7 @@
         <v>19700000</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G82" s="7">
         <v>197</v>
@@ -3698,13 +3698,13 @@
         <v>6866</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M82" s="7">
         <v>10</v>
@@ -3719,7 +3719,7 @@
         <v>18800000</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G83" s="7">
         <v>188</v>
@@ -3728,13 +3728,13 @@
         <v>6732</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M83" s="7">
         <v>10</v>
@@ -3749,7 +3749,7 @@
         <v>15500000</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G84" s="7">
         <v>155</v>
@@ -3758,13 +3758,13 @@
         <v>6917</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M84" s="7">
         <v>10</v>
@@ -3786,7 +3786,7 @@
         <v>13100000</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="7">
         <v>131</v>
@@ -3795,13 +3795,13 @@
         <v>6879</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M86" s="7">
         <v>10</v>
@@ -3816,7 +3816,7 @@
         <v>13000000</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G87" s="7">
         <v>130</v>
@@ -3825,13 +3825,13 @@
         <v>6809</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M87" s="7">
         <v>10</v>
@@ -3846,7 +3846,7 @@
         <v>10500000</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G88" s="7">
         <v>105</v>
@@ -3855,13 +3855,13 @@
         <v>6821</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M88" s="7">
         <v>10</v>
@@ -3876,7 +3876,7 @@
         <v>14500000</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G89" s="7">
         <v>145</v>
@@ -3885,13 +3885,13 @@
         <v>7023</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M89" s="7">
         <v>10</v>
@@ -3906,7 +3906,7 @@
         <v>14400000</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G90" s="7">
         <v>144</v>
@@ -3915,13 +3915,13 @@
         <v>6822</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M90" s="7">
         <v>10</v>
@@ -3936,7 +3936,7 @@
         <v>12700000</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G91" s="7">
         <v>127</v>
@@ -3945,13 +3945,13 @@
         <v>6665</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M91" s="7">
         <v>10</v>
@@ -3966,7 +3966,7 @@
         <v>11100000</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G92" s="7">
         <v>111</v>
@@ -3975,13 +3975,13 @@
         <v>6747</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M92" s="7">
         <v>10</v>
@@ -3996,7 +3996,7 @@
         <v>14200000</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G93" s="7">
         <v>142</v>
@@ -4005,13 +4005,13 @@
         <v>6903</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M93" s="7">
         <v>10</v>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7AD769-FFCD-4ABE-B4AF-F1C88D91B663}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D693A-36BF-4482-AD74-EFD09C1D6BF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{33A51855-9CC8-48BF-AF72-98555351A2CA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
   <si>
     <t>1st node to die</t>
   </si>
@@ -82,6 +82,435 @@
   </si>
   <si>
     <t>Data Received [Bits]</t>
+  </si>
+  <si>
+    <t>0.8082</t>
+  </si>
+  <si>
+    <t>0.6214</t>
+  </si>
+  <si>
+    <t>3.8608</t>
+  </si>
+  <si>
+    <t>4871/10789</t>
+  </si>
+  <si>
+    <t>3.1202</t>
+  </si>
+  <si>
+    <t>5455/7663</t>
+  </si>
+  <si>
+    <t>0.7964</t>
+  </si>
+  <si>
+    <t>0.6207</t>
+  </si>
+  <si>
+    <t>4.0137</t>
+  </si>
+  <si>
+    <t>4242/10773</t>
+  </si>
+  <si>
+    <t>3.1966</t>
+  </si>
+  <si>
+    <t>5452/7792</t>
+  </si>
+  <si>
+    <t>0.8022</t>
+  </si>
+  <si>
+    <t>0.6185</t>
+  </si>
+  <si>
+    <t>4.0904</t>
+  </si>
+  <si>
+    <t>5907/10286</t>
+  </si>
+  <si>
+    <t>3.2812</t>
+  </si>
+  <si>
+    <t>5074/7676</t>
+  </si>
+  <si>
+    <t>0.7968</t>
+  </si>
+  <si>
+    <t>0.6232</t>
+  </si>
+  <si>
+    <t>4.0596</t>
+  </si>
+  <si>
+    <t>5085/10417</t>
+  </si>
+  <si>
+    <t>3.2345</t>
+  </si>
+  <si>
+    <t>5304/7779</t>
+  </si>
+  <si>
+    <t>0.7960</t>
+  </si>
+  <si>
+    <t>0.6114</t>
+  </si>
+  <si>
+    <t>4.0890</t>
+  </si>
+  <si>
+    <t>4768/10899</t>
+  </si>
+  <si>
+    <t>3.2549</t>
+  </si>
+  <si>
+    <t>5921/7974</t>
+  </si>
+  <si>
+    <t>0.8033</t>
+  </si>
+  <si>
+    <t>0.6294</t>
+  </si>
+  <si>
+    <t>3.9589</t>
+  </si>
+  <si>
+    <t>6358/10724</t>
+  </si>
+  <si>
+    <t>3.1802</t>
+  </si>
+  <si>
+    <t>5805/7750</t>
+  </si>
+  <si>
+    <t>0.7985</t>
+  </si>
+  <si>
+    <t>0.6070</t>
+  </si>
+  <si>
+    <t>3.4380</t>
+  </si>
+  <si>
+    <t>6649/11317</t>
+  </si>
+  <si>
+    <t>2.7452</t>
+  </si>
+  <si>
+    <t>5395/7852</t>
+  </si>
+  <si>
+    <t>0.8121</t>
+  </si>
+  <si>
+    <t>0.6295</t>
+  </si>
+  <si>
+    <t>4.0133</t>
+  </si>
+  <si>
+    <t>5424/10769</t>
+  </si>
+  <si>
+    <t>3.2592</t>
+  </si>
+  <si>
+    <t>5169/7739</t>
+  </si>
+  <si>
+    <t>0.8037</t>
+  </si>
+  <si>
+    <t>0.6216</t>
+  </si>
+  <si>
+    <t>4.0231</t>
+  </si>
+  <si>
+    <t>5641/10578</t>
+  </si>
+  <si>
+    <t>3.2334</t>
+  </si>
+  <si>
+    <t>5354/7696</t>
+  </si>
+  <si>
+    <t>0.8005</t>
+  </si>
+  <si>
+    <t>0.6276</t>
+  </si>
+  <si>
+    <t>3.3259</t>
+  </si>
+  <si>
+    <t>5904/10974</t>
+  </si>
+  <si>
+    <t>2.6625</t>
+  </si>
+  <si>
+    <t>5408/7881</t>
+  </si>
+  <si>
+    <t>0.8050</t>
+  </si>
+  <si>
+    <t>0.6186</t>
+  </si>
+  <si>
+    <t>4.0341</t>
+  </si>
+  <si>
+    <t>5017/10457</t>
+  </si>
+  <si>
+    <t>3.2473</t>
+  </si>
+  <si>
+    <t>5197/7589</t>
+  </si>
+  <si>
+    <t>0.7952</t>
+  </si>
+  <si>
+    <t>0.6246</t>
+  </si>
+  <si>
+    <t>3.9089</t>
+  </si>
+  <si>
+    <t>3610/10868</t>
+  </si>
+  <si>
+    <t>3.1084</t>
+  </si>
+  <si>
+    <t>4915/8021</t>
+  </si>
+  <si>
+    <t>0.8140</t>
+  </si>
+  <si>
+    <t>0.6277</t>
+  </si>
+  <si>
+    <t>3.9598</t>
+  </si>
+  <si>
+    <t>5569/10529</t>
+  </si>
+  <si>
+    <t>3.2233</t>
+  </si>
+  <si>
+    <t>4918/7705</t>
+  </si>
+  <si>
+    <t>0.8089</t>
+  </si>
+  <si>
+    <t>0.6213</t>
+  </si>
+  <si>
+    <t>4.2365</t>
+  </si>
+  <si>
+    <t>4714/10906</t>
+  </si>
+  <si>
+    <t>3.4269</t>
+  </si>
+  <si>
+    <t>4894/7758</t>
+  </si>
+  <si>
+    <t>0.8054</t>
+  </si>
+  <si>
+    <t>0.6147</t>
+  </si>
+  <si>
+    <t>3.8943</t>
+  </si>
+  <si>
+    <t>5506/10746</t>
+  </si>
+  <si>
+    <t>3.1365</t>
+  </si>
+  <si>
+    <t>5317/7763</t>
+  </si>
+  <si>
+    <t>0.8040</t>
+  </si>
+  <si>
+    <t>0.6224</t>
+  </si>
+  <si>
+    <t>3.9982</t>
+  </si>
+  <si>
+    <t>4709/10446</t>
+  </si>
+  <si>
+    <t>3.2148</t>
+  </si>
+  <si>
+    <t>5100/7714</t>
+  </si>
+  <si>
+    <t>0.8102</t>
+  </si>
+  <si>
+    <t>0.6265</t>
+  </si>
+  <si>
+    <t>3.9415</t>
+  </si>
+  <si>
+    <t>6473/10355</t>
+  </si>
+  <si>
+    <t>3.1934</t>
+  </si>
+  <si>
+    <t>5677/7701</t>
+  </si>
+  <si>
+    <t>0.7946</t>
+  </si>
+  <si>
+    <t>3.7788</t>
+  </si>
+  <si>
+    <t>4827/10866</t>
+  </si>
+  <si>
+    <t>3.0027</t>
+  </si>
+  <si>
+    <t>5456/7794</t>
+  </si>
+  <si>
+    <t>0.8127</t>
+  </si>
+  <si>
+    <t>0.6258</t>
+  </si>
+  <si>
+    <t>4.0848</t>
+  </si>
+  <si>
+    <t>5962/10483</t>
+  </si>
+  <si>
+    <t>3.3197</t>
+  </si>
+  <si>
+    <t>5458/7672</t>
+  </si>
+  <si>
+    <t>0.8055</t>
+  </si>
+  <si>
+    <t>0.6206</t>
+  </si>
+  <si>
+    <t>3.7436</t>
+  </si>
+  <si>
+    <t>5252/10869</t>
+  </si>
+  <si>
+    <t>3.0156</t>
+  </si>
+  <si>
+    <t>5256/7692</t>
+  </si>
+  <si>
+    <t>0.8048</t>
+  </si>
+  <si>
+    <t>0.6287</t>
+  </si>
+  <si>
+    <t>4.0386</t>
+  </si>
+  <si>
+    <t>5674/10308</t>
+  </si>
+  <si>
+    <t>3.2504</t>
+  </si>
+  <si>
+    <t>5167/7711</t>
+  </si>
+  <si>
+    <t>0.8008</t>
+  </si>
+  <si>
+    <t>0.6178</t>
+  </si>
+  <si>
+    <t>3.7674</t>
+  </si>
+  <si>
+    <t>6422/10809</t>
+  </si>
+  <si>
+    <t>3.0170</t>
+  </si>
+  <si>
+    <t>5419/7680</t>
+  </si>
+  <si>
+    <t>0.7909</t>
+  </si>
+  <si>
+    <t>0.6249</t>
+  </si>
+  <si>
+    <t>3.3255</t>
+  </si>
+  <si>
+    <t>6338/11003</t>
+  </si>
+  <si>
+    <t>2.6300</t>
+  </si>
+  <si>
+    <t>5994/8112</t>
+  </si>
+  <si>
+    <t>0.8007</t>
+  </si>
+  <si>
+    <t>0.6274</t>
+  </si>
+  <si>
+    <t>3.9713</t>
+  </si>
+  <si>
+    <t>4983/10578</t>
+  </si>
+  <si>
+    <t>3.1799</t>
+  </si>
+  <si>
+    <t>5214/7802</t>
   </si>
 </sst>
 </file>
@@ -487,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422AF47D-5A1F-4A85-9298-77BA4672306C}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,13 +1001,27 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>33788000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>210</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8747</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="7">
         <v>10</v>
       </c>
@@ -596,13 +1039,27 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>35759000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7">
+        <v>222</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8892</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
@@ -620,13 +1077,27 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36084000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7">
+        <v>223</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8788</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="6">
         <v>10</v>
       </c>
@@ -644,13 +1115,27 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>36102000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7">
+        <v>225</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8867</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" s="6">
         <v>10</v>
       </c>
@@ -668,13 +1153,27 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7">
+        <v>37592000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6">
+        <v>230</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9175</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="J8" s="6">
         <v>10</v>
       </c>
@@ -692,13 +1191,27 @@
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6">
+        <v>35289000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6">
+        <v>222</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8880</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="6">
         <v>10</v>
       </c>
@@ -716,13 +1229,27 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6">
+        <v>31823000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6">
+        <v>193</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9195</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="6">
         <v>10</v>
       </c>
@@ -740,13 +1267,27 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>35086000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="6">
+        <v>221</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8721</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J11" s="9">
         <v>10</v>
       </c>
@@ -759,27 +1300,32 @@
       <c r="M11" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="7">
+        <v>35767000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6">
+        <v>222</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8848</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="6">
         <v>8</v>
       </c>
@@ -797,12 +1343,27 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>30091000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="6">
+        <v>189</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9000</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
@@ -820,13 +1381,27 @@
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="7">
+        <v>35252000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="6">
+        <v>218</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8716</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J15" s="6">
         <v>8</v>
       </c>
@@ -844,13 +1419,27 @@
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="7">
+        <v>35537000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="6">
+        <v>222</v>
+      </c>
+      <c r="H16" s="6">
+        <v>9071</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J16" s="6">
         <v>8</v>
       </c>
@@ -868,12 +1457,27 @@
       <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>34549000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7">
+        <v>217</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8705</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="J17" s="6">
         <v>8</v>
       </c>
@@ -891,12 +1495,27 @@
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>38142000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="7">
+        <v>237</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8978</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="6">
         <v>8</v>
       </c>
@@ -914,12 +1533,27 @@
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>34479000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7">
+        <v>212</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8832</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="J19" s="6">
         <v>8</v>
       </c>
@@ -937,13 +1571,27 @@
       <c r="B20" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6">
+        <v>34859000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7">
+        <v>217</v>
+      </c>
+      <c r="H20" s="6">
+        <v>8702</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="J20" s="6">
         <v>8</v>
       </c>
@@ -959,13 +1607,6 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
@@ -973,13 +1614,27 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="6">
+        <v>35290000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7">
+        <v>221</v>
+      </c>
+      <c r="H22" s="6">
+        <v>8915</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
@@ -997,13 +1652,27 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="6">
+        <v>34082000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7">
+        <v>212</v>
+      </c>
+      <c r="H23" s="6">
+        <v>8981</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
@@ -1021,13 +1690,27 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="6">
+        <v>36090000</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7">
+        <v>226</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8807</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
@@ -1045,13 +1728,27 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="6">
+        <v>33669000</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7">
+        <v>209</v>
+      </c>
+      <c r="H25" s="6">
+        <v>8959</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
@@ -1069,13 +1766,27 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="6">
+        <v>35166000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7">
+        <v>221</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8676</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
@@ -1093,13 +1804,27 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="6">
+        <v>33840000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="7">
+        <v>209</v>
+      </c>
+      <c r="H27" s="6">
+        <v>8939</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
@@ -1117,13 +1842,27 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="6">
+        <v>30537000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="7">
+        <v>191</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9155</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="J28" s="6">
         <v>6</v>
       </c>
@@ -1141,13 +1880,27 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="6">
+        <v>34758000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="7">
+        <v>218</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8729</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
@@ -1590,11 +2343,21 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="6"/>
+      <c r="E50" s="6">
+        <v>20998000</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="7">
+        <v>210</v>
+      </c>
+      <c r="H50" s="7">
+        <v>6740</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" t="s">
         <v>14</v>
@@ -1610,11 +2373,21 @@
       <c r="B51" s="5">
         <v>2</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6"/>
+      <c r="E51" s="6">
+        <v>22200000</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="7">
+        <v>222</v>
+      </c>
+      <c r="H51" s="7">
+        <v>6942</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="K51" t="s">
         <v>14</v>
       </c>
@@ -1629,11 +2402,21 @@
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="6"/>
+      <c r="E52" s="7">
+        <v>22298000</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="7">
+        <v>223</v>
+      </c>
+      <c r="H52" s="7">
+        <v>6803</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="K52" t="s">
         <v>14</v>
       </c>
@@ -1648,10 +2431,21 @@
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="E53" s="7">
+        <v>22500000</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="7">
+        <v>225</v>
+      </c>
+      <c r="H53" s="7">
+        <v>6956</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="K53" t="s">
         <v>14</v>
       </c>
@@ -1666,9 +2460,21 @@
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="7"/>
-      <c r="I54" s="3"/>
+      <c r="E54">
+        <v>23000000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="7">
+        <v>230</v>
+      </c>
+      <c r="H54" s="7">
+        <v>7057</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="K54" t="s">
         <v>14</v>
       </c>
@@ -1683,9 +2489,21 @@
       <c r="B55" s="4">
         <v>6</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="7"/>
-      <c r="I55" s="3"/>
+      <c r="E55">
+        <v>22200000</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="7">
+        <v>222</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6978</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="K55" t="s">
         <v>14</v>
       </c>
@@ -1700,9 +2518,21 @@
       <c r="B56" s="4">
         <v>7</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="7"/>
-      <c r="I56" s="3"/>
+      <c r="E56">
+        <v>19297000</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="7">
+        <v>193</v>
+      </c>
+      <c r="H56" s="7">
+        <v>7034</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="K56" t="s">
         <v>14</v>
       </c>
@@ -1717,9 +2547,21 @@
       <c r="B57" s="4">
         <v>8</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="7"/>
-      <c r="I57" s="3"/>
+      <c r="E57">
+        <v>22100000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="7">
+        <v>221</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6786</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="K57" t="s">
         <v>14</v>
       </c>
@@ -1737,9 +2579,21 @@
       <c r="B59" s="4">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="E59" s="7">
+        <v>22200000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7">
+        <v>222</v>
+      </c>
+      <c r="H59" s="7">
+        <v>6872</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K59" t="s">
         <v>14</v>
       </c>
@@ -1754,9 +2608,21 @@
       <c r="B60" s="4">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="3"/>
+      <c r="E60">
+        <v>18898000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="7">
+        <v>189</v>
+      </c>
+      <c r="H60" s="7">
+        <v>7087</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="K60" t="s">
         <v>14</v>
       </c>
@@ -1771,9 +2637,21 @@
       <c r="B61" s="4">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
-      <c r="I61" s="3"/>
+      <c r="E61">
+        <v>21800000</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="7">
+        <v>218</v>
+      </c>
+      <c r="H61">
+        <v>6711</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="K61" t="s">
         <v>14</v>
       </c>
@@ -1788,9 +2666,21 @@
       <c r="B62" s="4">
         <v>12</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
-      <c r="I62" s="3"/>
+      <c r="E62" s="3">
+        <v>22099000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="7">
+        <v>222</v>
+      </c>
+      <c r="H62">
+        <v>7142</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
@@ -1805,9 +2695,21 @@
       <c r="B63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63">
+        <v>21700000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="7">
+        <v>217</v>
+      </c>
+      <c r="H63">
+        <v>6736</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="K63" t="s">
         <v>14</v>
       </c>
@@ -1822,9 +2724,21 @@
       <c r="B64" s="4">
         <v>14</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
-      <c r="I64" s="3"/>
+      <c r="E64">
+        <v>23700000</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="7">
+        <v>237</v>
+      </c>
+      <c r="H64">
+        <v>6927</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="K64" t="s">
         <v>14</v>
       </c>
@@ -1839,9 +2753,21 @@
       <c r="B65" s="4">
         <v>15</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
-      <c r="I65" s="3"/>
+      <c r="E65">
+        <v>21200000</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="7">
+        <v>212</v>
+      </c>
+      <c r="H65">
+        <v>6766</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="K65" t="s">
         <v>14</v>
       </c>
@@ -1856,9 +2782,21 @@
       <c r="B66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
-      <c r="I66" s="3"/>
+      <c r="E66">
+        <v>21700000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="7">
+        <v>217</v>
+      </c>
+      <c r="H66">
+        <v>6760</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="K66" t="s">
         <v>14</v>
       </c>
@@ -1879,9 +2817,21 @@
       <c r="B68" s="4">
         <v>17</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
-      <c r="I68" s="3"/>
+      <c r="E68">
+        <v>35290000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="7">
+        <v>221</v>
+      </c>
+      <c r="H68">
+        <v>6918</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="K68" t="s">
         <v>14</v>
       </c>
@@ -1896,9 +2846,21 @@
       <c r="B69" s="4">
         <v>18</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
-      <c r="I69" s="3"/>
+      <c r="E69">
+        <v>21198000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="7">
+        <v>212</v>
+      </c>
+      <c r="H69">
+        <v>7052</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
@@ -1913,9 +2875,21 @@
       <c r="B70" s="4">
         <v>19</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
-      <c r="I70" s="3"/>
+      <c r="E70">
+        <v>22598000</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="7">
+        <v>226</v>
+      </c>
+      <c r="H70">
+        <v>6809</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
@@ -1930,9 +2904,21 @@
       <c r="B71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
-      <c r="I71" s="3"/>
+      <c r="E71">
+        <v>20898000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="7">
+        <v>209</v>
+      </c>
+      <c r="H71">
+        <v>6924</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="K71" t="s">
         <v>14</v>
       </c>
@@ -1947,9 +2933,21 @@
       <c r="B72" s="4">
         <v>21</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
-      <c r="I72" s="3"/>
+      <c r="E72">
+        <v>22100000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="7">
+        <v>221</v>
+      </c>
+      <c r="H72">
+        <v>6807</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="K72" t="s">
         <v>14</v>
       </c>
@@ -1964,9 +2962,21 @@
       <c r="B73" s="4">
         <v>22</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="I73" s="3"/>
+      <c r="E73">
+        <v>20898000</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="7">
+        <v>209</v>
+      </c>
+      <c r="H73">
+        <v>6927</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="K73" t="s">
         <v>14</v>
       </c>
@@ -1981,9 +2991,21 @@
       <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="I74" s="3"/>
+      <c r="E74">
+        <v>19094000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="7">
+        <v>191</v>
+      </c>
+      <c r="H74">
+        <v>7254</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
@@ -1998,9 +3020,21 @@
       <c r="B75" s="4">
         <v>24</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="3"/>
+      <c r="E75">
+        <v>21796000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="7">
+        <v>218</v>
+      </c>
+      <c r="H75">
+        <v>6866</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="K75" t="s">
         <v>14</v>
       </c>

--- a/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
+++ b/pyFiles/MPC/Results/MPC_1stNodeDeath_speed10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D693A-36BF-4482-AD74-EFD09C1D6BF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF88A7-EDBE-469F-B07D-10116A0503AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{33A51855-9CC8-48BF-AF72-98555351A2CA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="254">
   <si>
     <t>1st node to die</t>
   </si>
@@ -511,6 +511,288 @@
   </si>
   <si>
     <t>5214/7802</t>
+  </si>
+  <si>
+    <t>0.8002</t>
+  </si>
+  <si>
+    <t>0.6194</t>
+  </si>
+  <si>
+    <t>4.1301</t>
+  </si>
+  <si>
+    <t>6164/10323</t>
+  </si>
+  <si>
+    <t>3.3048</t>
+  </si>
+  <si>
+    <t>5272/7659</t>
+  </si>
+  <si>
+    <t>0.7966</t>
+  </si>
+  <si>
+    <t>0.6301</t>
+  </si>
+  <si>
+    <t>3.8767</t>
+  </si>
+  <si>
+    <t>6068/10670</t>
+  </si>
+  <si>
+    <t>3.0881</t>
+  </si>
+  <si>
+    <t>5100/7826</t>
+  </si>
+  <si>
+    <t>0.7882</t>
+  </si>
+  <si>
+    <t>3.5971</t>
+  </si>
+  <si>
+    <t>6502/10408</t>
+  </si>
+  <si>
+    <t>2.8352</t>
+  </si>
+  <si>
+    <t>4925/7682</t>
+  </si>
+  <si>
+    <t>0.8057</t>
+  </si>
+  <si>
+    <t>0.6325</t>
+  </si>
+  <si>
+    <t>4.1390</t>
+  </si>
+  <si>
+    <t>4845/10460</t>
+  </si>
+  <si>
+    <t>3.3347</t>
+  </si>
+  <si>
+    <t>4775/7468</t>
+  </si>
+  <si>
+    <t>0.7965</t>
+  </si>
+  <si>
+    <t>0.6273</t>
+  </si>
+  <si>
+    <t>4.1954</t>
+  </si>
+  <si>
+    <t>5932/10245</t>
+  </si>
+  <si>
+    <t>3.3415</t>
+  </si>
+  <si>
+    <t>5268/7573</t>
+  </si>
+  <si>
+    <t>0.6268</t>
+  </si>
+  <si>
+    <t>4.1021</t>
+  </si>
+  <si>
+    <t>5567/10708</t>
+  </si>
+  <si>
+    <t>3.2844</t>
+  </si>
+  <si>
+    <t>5608/7709</t>
+  </si>
+  <si>
+    <t>0.7934</t>
+  </si>
+  <si>
+    <t>0.6234</t>
+  </si>
+  <si>
+    <t>3.9742</t>
+  </si>
+  <si>
+    <t>6264/10244</t>
+  </si>
+  <si>
+    <t>3.1532</t>
+  </si>
+  <si>
+    <t>5546/7943</t>
+  </si>
+  <si>
+    <t>0.7871</t>
+  </si>
+  <si>
+    <t>0.6041</t>
+  </si>
+  <si>
+    <t>3.1574</t>
+  </si>
+  <si>
+    <t>4149/10581</t>
+  </si>
+  <si>
+    <t>2.4853</t>
+  </si>
+  <si>
+    <t>5359/7666</t>
+  </si>
+  <si>
+    <t>0.6290</t>
+  </si>
+  <si>
+    <t>0.6299</t>
+  </si>
+  <si>
+    <t>3.4118</t>
+  </si>
+  <si>
+    <t>2809/9801</t>
+  </si>
+  <si>
+    <t>2.1458</t>
+  </si>
+  <si>
+    <t>5093/7789</t>
+  </si>
+  <si>
+    <t>0.6622</t>
+  </si>
+  <si>
+    <t>0.6293</t>
+  </si>
+  <si>
+    <t>3.0373</t>
+  </si>
+  <si>
+    <t>4726/9796</t>
+  </si>
+  <si>
+    <t>2.0112</t>
+  </si>
+  <si>
+    <t>5218/7651</t>
+  </si>
+  <si>
+    <t>0.6716</t>
+  </si>
+  <si>
+    <t>0.6230</t>
+  </si>
+  <si>
+    <t>3.6394</t>
+  </si>
+  <si>
+    <t>4535/10202</t>
+  </si>
+  <si>
+    <t>2.4444</t>
+  </si>
+  <si>
+    <t>5404/7938</t>
+  </si>
+  <si>
+    <t>0.5516</t>
+  </si>
+  <si>
+    <t>0.6251</t>
+  </si>
+  <si>
+    <t>3.0389</t>
+  </si>
+  <si>
+    <t>3252/9179</t>
+  </si>
+  <si>
+    <t>1.6763</t>
+  </si>
+  <si>
+    <t>4909/7604</t>
+  </si>
+  <si>
+    <t>0.6321</t>
+  </si>
+  <si>
+    <t>0.6252</t>
+  </si>
+  <si>
+    <t>3.3093</t>
+  </si>
+  <si>
+    <t>2282/9570</t>
+  </si>
+  <si>
+    <t>2.0920</t>
+  </si>
+  <si>
+    <t>5544/7731</t>
+  </si>
+  <si>
+    <t>0.6010</t>
+  </si>
+  <si>
+    <t>0.6188</t>
+  </si>
+  <si>
+    <t>3.0152</t>
+  </si>
+  <si>
+    <t>3524/9609</t>
+  </si>
+  <si>
+    <t>1.8121</t>
+  </si>
+  <si>
+    <t>5506/7652</t>
+  </si>
+  <si>
+    <t>0.5997</t>
+  </si>
+  <si>
+    <t>0.6257</t>
+  </si>
+  <si>
+    <t>2.9338</t>
+  </si>
+  <si>
+    <t>3695/9319</t>
+  </si>
+  <si>
+    <t>1.7593</t>
+  </si>
+  <si>
+    <t>5351/7731</t>
+  </si>
+  <si>
+    <t>0.6219</t>
+  </si>
+  <si>
+    <t>0.6267</t>
+  </si>
+  <si>
+    <t>2.9629</t>
+  </si>
+  <si>
+    <t>3179/9722</t>
+  </si>
+  <si>
+    <t>1.8426</t>
+  </si>
+  <si>
+    <t>4828/7508</t>
   </si>
 </sst>
 </file>
@@ -916,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422AF47D-5A1F-4A85-9298-77BA4672306C}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1930,13 +2212,27 @@
       <c r="B31" s="5">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="6">
+        <v>35836000</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="7">
+        <v>222</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8641</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="J31" s="6">
         <v>4</v>
       </c>
@@ -1954,13 +2250,27 @@
       <c r="B32" s="5">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="6">
+        <v>34299000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="7">
+        <v>216</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8805</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="J32" s="6">
         <v>4</v>
       </c>
@@ -1978,13 +2288,27 @@
       <c r="B33" s="5">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="6">
+        <v>31194000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="7">
+        <v>193</v>
+      </c>
+      <c r="H33" s="7">
+        <v>8642</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
@@ -2002,13 +2326,27 @@
       <c r="B34" s="5">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="6">
+        <v>35097000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="7">
+        <v>222</v>
+      </c>
+      <c r="H34" s="7">
+        <v>8469</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="J34" s="6">
         <v>4</v>
       </c>
@@ -2026,13 +2364,27 @@
       <c r="B35" s="5">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="6">
+        <v>35883000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="7">
+        <v>225</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8520</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="J35" s="6">
         <v>4</v>
       </c>
@@ -2050,13 +2402,27 @@
       <c r="B36" s="5">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="6">
+        <v>36374000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="7">
+        <v>228</v>
+      </c>
+      <c r="H36" s="7">
+        <v>8836</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
@@ -2074,13 +2440,27 @@
       <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="6">
+        <v>34946000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="7">
+        <v>218</v>
+      </c>
+      <c r="H37" s="7">
+        <v>8761</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
@@ -2098,13 +2478,27 @@
       <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="6">
+        <v>28151000</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="7">
+        <v>170</v>
+      </c>
+      <c r="H38" s="7">
+        <v>8878</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
@@ -2131,13 +2525,27 @@
       <c r="B40" s="5">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="6">
+        <v>23634000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="7">
+        <v>149</v>
+      </c>
+      <c r="H40" s="7">
+        <v>7271</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="J40" s="6">
         <v>2</v>
       </c>
@@ -2155,13 +2563,27 @@
       <c r="B41" s="5">
         <v>34</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="6">
+        <v>21572000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="7">
+        <v>136</v>
+      </c>
+      <c r="H41" s="7">
+        <v>7241</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
@@ -2179,13 +2601,27 @@
       <c r="B42" s="5">
         <v>35</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="6">
+        <v>27946000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="7">
+        <v>174</v>
+      </c>
+      <c r="H42" s="7">
+        <v>7818</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
@@ -2203,13 +2639,27 @@
       <c r="B43" s="5">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="6">
+        <v>18271000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="7">
+        <v>114</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6350</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="J43" s="6">
         <v>2</v>
       </c>
@@ -2227,13 +2677,27 @@
       <c r="B44" s="5">
         <v>37</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="6">
+        <v>23168000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="7">
+        <v>145</v>
+      </c>
+      <c r="H44" s="7">
+        <v>7316</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="J44" s="6">
         <v>2</v>
       </c>
@@ -2251,13 +2715,27 @@
       <c r="B45" s="5">
         <v>38</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="6">
+        <v>20013000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="7">
+        <v>124</v>
+      </c>
+      <c r="H45" s="7">
+        <v>6974</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
@@ -2275,13 +2753,27 @@
       <c r="B46" s="5">
         <v>39</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="6">
+        <v>19494000</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="7">
+        <v>122</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6965</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="J46" s="6">
         <v>2</v>
       </c>
@@ -2299,13 +2791,27 @@
       <c r="B47" s="5">
         <v>40</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="6">
+        <v>20083000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="7">
+        <v>126</v>
+      </c>
+      <c r="H47" s="7">
+        <v>7033</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="J47" s="6">
         <v>2</v>
       </c>
@@ -3056,9 +3562,21 @@
       <c r="B77" s="5">
         <v>25</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="3"/>
+      <c r="E77">
+        <v>22200000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="7">
+        <v>222</v>
+      </c>
+      <c r="H77">
+        <v>6724</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="K77" t="s">
         <v>14</v>
       </c>
@@ -3074,9 +3592,21 @@
         <v>26</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
-      <c r="I78" s="3"/>
+      <c r="E78">
+        <v>21600000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="7">
+        <v>216</v>
+      </c>
+      <c r="H78">
+        <v>7002</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="K78" t="s">
         <v>14</v>
       </c>
@@ -3092,9 +3622,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
-      <c r="I79" s="3"/>
+      <c r="E79">
+        <v>19298000</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="7">
+        <v>193</v>
+      </c>
+      <c r="H79">
+        <v>6808</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
@@ -3110,9 +3652,21 @@
         <v>28</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="3"/>
+      <c r="E80">
+        <v>22200000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="7">
+        <v>222</v>
+      </c>
+      <c r="H80">
+        <v>6669</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
@@ -3128,9 +3682,21 @@
         <v>29</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
-      <c r="I81" s="3"/>
+      <c r="E81">
+        <v>22500000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G81" s="7">
+        <v>225</v>
+      </c>
+      <c r="H81">
+        <v>6738</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="K81" t="s">
         <v>14</v>
       </c>
@@ -3146,9 +3712,21 @@
         <v>30</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
-      <c r="I82" s="3"/>
+      <c r="E82">
+        <v>22800000</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G82" s="7">
+        <v>228</v>
+      </c>
+      <c r="H82">
+        <v>6940</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="K82" t="s">
         <v>14</v>
       </c>
@@ -3164,9 +3742,21 @@
         <v>31</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
-      <c r="I83" s="3"/>
+      <c r="E83">
+        <v>21800000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="7">
+        <v>218</v>
+      </c>
+      <c r="H83">
+        <v>6914</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="K83" t="s">
         <v>14</v>
       </c>
@@ -3182,9 +3772,21 @@
         <v>32</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
-      <c r="I84" s="3"/>
+      <c r="E84">
+        <v>17000000</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" s="7">
+        <v>170</v>
+      </c>
+      <c r="H84">
+        <v>6829</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
@@ -3207,9 +3809,21 @@
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="3"/>
+      <c r="E86">
+        <v>14900000</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="7">
+        <v>149</v>
+      </c>
+      <c r="H86">
+        <v>6934</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
@@ -3225,9 +3839,21 @@
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
-      <c r="I87" s="3"/>
+      <c r="E87">
+        <v>13600000</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" s="7">
+        <v>136</v>
+      </c>
+      <c r="H87">
+        <v>6756</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="K87" t="s">
         <v>14</v>
       </c>
@@ -3243,9 +3869,21 @@
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
-      <c r="I88" s="3"/>
+      <c r="E88">
+        <v>17400000</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" s="7">
+        <v>174</v>
+      </c>
+      <c r="H88">
+        <v>7107</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="K88" t="s">
         <v>14</v>
       </c>
@@ -3261,9 +3899,21 @@
         <v>36</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
-      <c r="I89" s="3"/>
+      <c r="E89">
+        <v>11400000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G89" s="7">
+        <v>114</v>
+      </c>
+      <c r="H89">
+        <v>6786</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="K89" t="s">
         <v>14</v>
       </c>
@@ -3279,9 +3929,21 @@
         <v>37</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
-      <c r="I90" s="3"/>
+      <c r="E90">
+        <v>14500000</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G90" s="7">
+        <v>145</v>
+      </c>
+      <c r="H90">
+        <v>6918</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="K90" t="s">
         <v>14</v>
       </c>
@@ -3297,9 +3959,21 @@
         <v>38</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
-      <c r="I91" s="3"/>
+      <c r="E91">
+        <v>12400000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="7">
+        <v>124</v>
+      </c>
+      <c r="H91">
+        <v>6820</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="K91" t="s">
         <v>14</v>
       </c>
@@ -3315,9 +3989,21 @@
         <v>39</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
-      <c r="I92" s="3"/>
+      <c r="E92">
+        <v>12200000</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="7">
+        <v>122</v>
+      </c>
+      <c r="H92">
+        <v>6914</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="K92" t="s">
         <v>14</v>
       </c>
@@ -3333,9 +4019,21 @@
         <v>40</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
-      <c r="I93" s="3"/>
+      <c r="E93">
+        <v>12600000</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G93" s="7">
+        <v>126</v>
+      </c>
+      <c r="H93">
+        <v>6821</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="K93" t="s">
         <v>14</v>
       </c>
